--- a/data/income_statement/2digits/size/23_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/23_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>23-Manufacture of other non-metallic mineral products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>23-Manufacture of other non-metallic mineral products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1145 +841,1295 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>19044476.72153</v>
+        <v>18461149.70113</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>22560934.12288</v>
+        <v>21813050.23202</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>28252507.8131</v>
+        <v>27620787.42705</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>30841884.34368</v>
+        <v>29863314.96463</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>34772452.43831</v>
+        <v>34048208.03704</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>39209145.16360001</v>
+        <v>39593714.48917</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>45735293.9985</v>
+        <v>46606741.30853</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>52413812.32372</v>
+        <v>51004047.64168001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>64291858.29361</v>
+        <v>62000123.67988999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>63659599.12351</v>
+        <v>62540712.99949001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>64388913.76347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>62571950.7329</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>79554641.45</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>14491179.01226</v>
+        <v>13982823.10245</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>17939215.25945</v>
+        <v>17255639.92998</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>23021820.27278</v>
+        <v>22463345.37169</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>25596379.96358</v>
+        <v>24758559.3996</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>29190597.62944</v>
+        <v>28540614.435</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>33048162.30113</v>
+        <v>33441685.15589</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>39037672.48684999</v>
+        <v>39482524.0844</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>44506648.24098999</v>
+        <v>43312789.19231</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>54032676.40075</v>
+        <v>51951732.96442</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>49879650.59315</v>
+        <v>48981644.01655</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>46206645.06224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>44651493.95056</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>56517152.806</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>4254338.94186</v>
+        <v>4192771.84531</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>4345933.48741</v>
+        <v>4292979.32689</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>4863191.253760001</v>
+        <v>4806566.33818</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>4867699.986049999</v>
+        <v>4745659.36276</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>5217204.68808</v>
+        <v>5173513.24696</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>5697718.73436</v>
+        <v>5707726.72226</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>6036483.17191</v>
+        <v>6493502.56676</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>7009478.10233</v>
+        <v>6839537.09424</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>9009599.471249999</v>
+        <v>8871704.21541</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>12560969.17468</v>
+        <v>12487463.13766</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>17065346.25913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16911285.52382</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>21962868.314</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>298958.76741</v>
+        <v>285554.75337</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>275785.37602</v>
+        <v>264430.97515</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>367496.28656</v>
+        <v>350875.71718</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>377804.39405</v>
+        <v>359096.20227</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>364650.12079</v>
+        <v>334080.35508</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>463264.12811</v>
+        <v>444302.61102</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>661138.33974</v>
+        <v>630714.6573700001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>897685.9804</v>
+        <v>851721.35513</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1249582.42161</v>
+        <v>1176686.50006</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1218979.35568</v>
+        <v>1071605.84528</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1116922.4421</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1009171.25852</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1074620.33</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1244942.46276</v>
+        <v>1220361.47675</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1411629.77226</v>
+        <v>1385439.67256</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1613052.11948</v>
+        <v>1596595.74349</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1854087.26588</v>
+        <v>1839786.20958</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2051105.51634</v>
+        <v>2050078.78171</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2342657.62667</v>
+        <v>2380349.54105</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2667136.44362</v>
+        <v>3157970.80062</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>3627066.67551</v>
+        <v>3593054.01758</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>4179837.37213</v>
+        <v>4151564.75694</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4687901.65722</v>
+        <v>4647214.55036</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>5163860.60838</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>5114569.88371</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>5201897.675</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>87029.88864</v>
+        <v>82763.15575000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>78637.83955</v>
+        <v>76406.04511000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>81931.73125</v>
+        <v>80355.81444</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>166415.78565</v>
+        <v>162731.24102</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>105518.74691</v>
+        <v>100973.45766</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>153184.86783</v>
+        <v>148403.07645</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>167709.2429</v>
+        <v>146975.52569</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>375350.67837</v>
+        <v>362148.83001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>328315.59659</v>
+        <v>305968.69985</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>325685.82687</v>
+        <v>311892.56552</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>322899.57269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>309957.73308</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>323368.192</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>829467.29859</v>
+        <v>810409.5746599999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>970273.1964899999</v>
+        <v>946838.2460500001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1142980.38186</v>
+        <v>1130036.2882</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1215869.34493</v>
+        <v>1209224.72358</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1403599.94649</v>
+        <v>1408772.63946</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1666208.87152</v>
+        <v>1684407.15696</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1840952.78438</v>
+        <v>2343942.450660001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2528878.26413</v>
+        <v>2509222.709350001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>2888711.35553</v>
+        <v>2885166.89042</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3153791.50565</v>
+        <v>3139177.99753</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3421524.59314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3389251.148519999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3419125.847</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>328445.27553</v>
+        <v>327188.74634</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>362718.73622</v>
+        <v>362195.3814</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>388140.00637</v>
+        <v>386203.64085</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>471802.1353</v>
+        <v>467830.24498</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>541986.82294</v>
+        <v>540332.6845900001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>523263.88732</v>
+        <v>547539.3076399999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>658474.4163399999</v>
+        <v>667052.82427</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>722837.73301</v>
+        <v>721682.47822</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>962810.42001</v>
+        <v>960429.1666699998</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1208424.3247</v>
+        <v>1196143.98731</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1419436.44255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1415361.00211</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1459403.636</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>17799534.25877</v>
+        <v>17240788.22438</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>21149304.35062</v>
+        <v>20427610.55946</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>26639455.69362</v>
+        <v>26024191.68356</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>28987797.0778</v>
+        <v>28023528.75505</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>32721346.92197</v>
+        <v>31998129.25533</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>36866487.53693001</v>
+        <v>37213364.94812</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>43068157.55488001</v>
+        <v>43448770.50791001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>48786745.64821</v>
+        <v>47410993.62410001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>60112020.92147999</v>
+        <v>57848558.92295001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>58971697.46629</v>
+        <v>57893498.44913001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>59225053.15509</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>57457380.84919</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>74352743.77500001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>13351081.9587</v>
+        <v>12914439.50187</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>16060089.6471</v>
+        <v>15458450.97483</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>20051558.28538</v>
+        <v>19551308.6884</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>22469764.27754</v>
+        <v>21646187.85382</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>24858480.15409</v>
+        <v>24264575.80579</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>27430602.0925</v>
+        <v>27562662.43572</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>31836926.06095</v>
+        <v>32068694.43432</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>36657156.45037</v>
+        <v>35431771.15494</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>45907713.91508999</v>
+        <v>44042960.76481</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>43830570.14207</v>
+        <v>43006944.16627</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>44871907.23771</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>43383622.97668</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>55543547.451</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>11222592.88953</v>
+        <v>10875790.34317</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>13608743.69103</v>
+        <v>13168699.28511</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>16516285.49331</v>
+        <v>16179478.6357</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>18765299.4824</v>
+        <v>18140966.02499</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>20387218.64709</v>
+        <v>19951579.12911</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>22572354.13686</v>
+        <v>22899425.15637</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>26080433.63551</v>
+        <v>26375249.5713</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>29838420.83882</v>
+        <v>28983234.30545</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>38344287.11083</v>
+        <v>36828826.35189</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>36518094.16812</v>
+        <v>35911564.65934999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>38350067.5468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>37275981.72084</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>45568979.412</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1094655.31974</v>
+        <v>1059788.25366</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1441949.44507</v>
+        <v>1395835.87636</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1866645.38979</v>
+        <v>1839130.71896</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>2302506.15553</v>
+        <v>2221461.57143</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2664723.6173</v>
+        <v>2592585.7096</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3298960.06835</v>
+        <v>3230253.1177</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>3698579.0505</v>
+        <v>3665656.66589</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>4157474.19615</v>
+        <v>3983317.56561</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>5119221.36086</v>
+        <v>4942290.48125</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3731685.77417</v>
+        <v>3658700.39891</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3162272.54844</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2974793.14586</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>6271381.225</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>948171.78158</v>
+        <v>896560.5218099999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>929537.7268200001</v>
+        <v>816932.4057700001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1544125.4474</v>
+        <v>1421383.30066</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1252399.00356</v>
+        <v>1135922.24444</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1669237.63856</v>
+        <v>1585405.71538</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1343283.17888</v>
+        <v>1221724.9135</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1907055.21702</v>
+        <v>1801310.09792</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2436560.37727</v>
+        <v>2256601.24406</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2044871.69993</v>
+        <v>1896922.03286</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3143207.14489</v>
+        <v>3003167.97133</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2877749.77646</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2652906.92141</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3268764.096</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>85661.96785</v>
+        <v>82300.38322999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>79858.78418</v>
+        <v>76983.40759</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>124501.95488</v>
+        <v>111316.03308</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>149559.63605</v>
+        <v>147838.01296</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>137300.25114</v>
+        <v>135005.2517</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>216004.70841</v>
+        <v>211259.24815</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>150858.15792</v>
+        <v>226478.09921</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>224701.03813</v>
+        <v>208618.03982</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>399333.74347</v>
+        <v>374921.89881</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>437583.05489</v>
+        <v>433511.1366800001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>481817.36601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>479941.1885700001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>434422.718</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>4448452.30007</v>
+        <v>4326348.722510001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>5089214.703520001</v>
+        <v>4969159.58463</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>6587897.40824</v>
+        <v>6472882.995159999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>6518032.80026</v>
+        <v>6377340.901230001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>7862866.767879999</v>
+        <v>7733553.44954</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>9435885.444430001</v>
+        <v>9650702.512400001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>11231231.49393</v>
+        <v>11380076.07359</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>12129589.19784</v>
+        <v>11979222.46916</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>14204307.00639</v>
+        <v>13805598.15814</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>15141127.32422</v>
+        <v>14886554.28286</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>14353145.91738</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14073757.87251</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>18809196.324</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2798904.81475</v>
+        <v>2683289.76862</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>3028376.32847</v>
+        <v>2869340.59477</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3468839.35121</v>
+        <v>3361746.19415</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3956303.04342</v>
+        <v>3805568.85617</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4206759.74929</v>
+        <v>4102844.26645</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>4768484.68356</v>
+        <v>4695880.2191</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>5318702.478620001</v>
+        <v>5441949.584600001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>6271917.058309999</v>
+        <v>6124769.343150001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>7268579.044129999</v>
+        <v>7015259.58033</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>7100813.89</v>
+        <v>7005267.6336</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>8084411.661739999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>7842096.01864</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>8723895.66</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>60290.57402</v>
+        <v>59303.12536</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>69029.18728</v>
+        <v>67389.37548999999</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>78268.80118000001</v>
+        <v>77930.49919</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>70132.35227</v>
+        <v>69367.57248</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>79764.80619000002</v>
+        <v>78036.26547</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>97312.61412</v>
+        <v>95745.91284999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>120084.41682</v>
+        <v>124461.85022</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>136573.67585</v>
+        <v>135881.77132</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>128438.4092</v>
+        <v>128115.00713</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>128414.73625</v>
+        <v>128331.10154</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>157106.74831</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>149611.96455</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>141315.317</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>1432881.13255</v>
+        <v>1402255.2993</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1635651.42689</v>
+        <v>1592645.47934</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>2004556.08463</v>
+        <v>1974713.00476</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2267075.68878</v>
+        <v>2211978.74921</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2406958.32377</v>
+        <v>2360928.20488</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2687943.49288</v>
+        <v>2653117.89141</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2877136.90762</v>
+        <v>3019902.97532</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3383850.40754</v>
+        <v>3349921.45189</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>4044184.4406</v>
+        <v>3943471.4783</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4028331.94886</v>
+        <v>3989523.61976</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4546898.46422</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4458540.023940001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>5166289.602</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1305733.10818</v>
+        <v>1221731.34396</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1323695.7143</v>
+        <v>1209305.73994</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1386014.4654</v>
+        <v>1309102.6902</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1619095.00237</v>
+        <v>1524222.53448</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1720036.61933</v>
+        <v>1663879.7961</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1983228.57656</v>
+        <v>1947016.41484</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2321481.154180001</v>
+        <v>2297584.75906</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2751492.97492</v>
+        <v>2638966.11994</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>3095956.19433</v>
+        <v>2943673.094899999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2944067.20489</v>
+        <v>2887412.9123</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3380406.44921</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3233944.03015</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3416290.741</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1649547.48532</v>
+        <v>1643058.95389</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>2060838.37505</v>
+        <v>2099818.98986</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>3119058.05703</v>
+        <v>3111136.80101</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2561729.75684</v>
+        <v>2571772.04506</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3656107.01859</v>
+        <v>3630709.183089999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4667400.760870001</v>
+        <v>4954822.2933</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>5912529.01531</v>
+        <v>5938126.48899</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>5857672.139529999</v>
+        <v>5854453.12601</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>6935727.96226</v>
+        <v>6790338.57781</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>8040313.434219999</v>
+        <v>7881286.64926</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>6268734.255639999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>6231661.853870001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>10085300.664</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1527210.47325</v>
+        <v>1425480.94215</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1972450.29141</v>
+        <v>1862614.20311</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2391572.33304</v>
+        <v>2260565.90788</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2300557.25445</v>
+        <v>2222342.18516</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3130815.9149</v>
+        <v>3021626.81465</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3438844.05076</v>
+        <v>3392834.885139999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3871359.684270001</v>
+        <v>3642598.71437</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4410843.060690001</v>
+        <v>3754386.73867</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>5407395.781219999</v>
+        <v>4776203.484270001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>11619674.76696</v>
+        <v>11006948.56429</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>11197050.35407</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>10966263.61308</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>10324822.786</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>118518.49893</v>
+        <v>99980.20472999998</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>151267.21803</v>
+        <v>131093.30328</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>164828.47558</v>
+        <v>149824.80941</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>273622.69798</v>
+        <v>273550.97016</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>205297.20422</v>
+        <v>184991.9661</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>149252.55536</v>
+        <v>149058.7995</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>235123.09932</v>
+        <v>205420.47462</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>244043.82319</v>
+        <v>228186.29228</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>253188.66474</v>
+        <v>250651.52808</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>154074.66733</v>
+        <v>153033.92019</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>130846.24478</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>126501.72658</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>899816.434</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>15715.1127</v>
+        <v>15705.87683</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>73393.98943</v>
+        <v>73216.53004</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>18695.16527</v>
+        <v>18549.66903</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>79457.71891</v>
+        <v>79283.27507999999</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>70115.62178</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>86165.13197999999</v>
+        <v>87372.28326</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>513152.62035</v>
+        <v>287306.02626</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>482304.699</v>
+        <v>65090.45651</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>347912.577</v>
+        <v>75411.53784999999</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>384431.47433</v>
+        <v>65086.11826</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>252086.61726</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>64535.122</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>162244.55638</v>
+        <v>151125.86523</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>149601.20615</v>
+        <v>138404.76546</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>169618.40394</v>
+        <v>153800.84028</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>210461.35671</v>
+        <v>196281.05831</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>185958.13975</v>
+        <v>175122.92705</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>246378.08096</v>
+        <v>238698.99555</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>299839.55527</v>
+        <v>283768.6421</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>363572.67676</v>
+        <v>351855.15248</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>481583.53474</v>
+        <v>457446.91283</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>571553.7918</v>
+        <v>521755.22265</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>777820.04551</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>658425.58352</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>799883.241</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>13798.01066</v>
+        <v>9540.30708</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>12285.67637</v>
+        <v>11761.91395</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>14260.90145</v>
+        <v>13676.00034</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>19529.87878</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>18302.04242</v>
+        <v>18201.82211</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>24073.71464</v>
+        <v>23893.89257</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>24377.54065</v>
+        <v>24357.38461</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>27612.30784</v>
+        <v>27593.23551</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>25301.32096</v>
+        <v>25280.79183</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>913.7061100000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>3343.06487</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>3323.30858</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>6379.44</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>43363.98378</v>
+        <v>43041.01498</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>26424.22251000001</v>
+        <v>25657.01718</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>52639.60493</v>
+        <v>51592.83424</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>42186.91848000001</v>
+        <v>39905.95291</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>53301.77591</v>
+        <v>52791.16004000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>55738.49184</v>
+        <v>55340.151</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>37710.86294</v>
+        <v>42218.01715</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>30809.08583</v>
+        <v>29328.57205</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>33271.87396</v>
+        <v>32465.51655</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>120455.79847</v>
+        <v>119439.14622</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>160540.23151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>157644.01217</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>153498.115</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>46912.29108</v>
+        <v>46325.47189000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>84155.67512</v>
+        <v>83774.36605</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>22055.02555</v>
+        <v>22049.06218</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>63913.02731</v>
+        <v>62954.64389999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>438028.85961</v>
+        <v>438004.37124</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>263737.91391</v>
+        <v>263461.32558</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>100915.77409</v>
+        <v>101480.97144</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>599488.3091000002</v>
+        <v>599304.0558099999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>100059.89055</v>
+        <v>99919.49475000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1008489.98181</v>
+        <v>1008235.22889</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>220198.96991</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>219558.27204</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>137342.538</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>902452.3390899999</v>
+        <v>850647.6759100001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1239443.17104</v>
+        <v>1178584.77025</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1737648.87483</v>
+        <v>1654687.11356</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1360862.89915</v>
+        <v>1309967.39621</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1864767.48734</v>
+        <v>1792348.63463</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2268054.08344</v>
+        <v>2229258.59978</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2240787.77301</v>
+        <v>2253278.41626</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2076853.95509</v>
+        <v>1883759.68613</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>3428258.345</v>
+        <v>3168490.68189</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>8369875.30632</v>
+        <v>8136974.000139999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>8614126.887159999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>8540165.324440001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>7533567.295</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>20502.07888</v>
+        <v>18679.15494</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>15441.27836</v>
+        <v>14821.57722</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>19883.13565</v>
+        <v>19041.27585</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>20743.27602</v>
+        <v>20057.91053</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>37522.61035</v>
+        <v>37171.31198999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>56632.73564</v>
+        <v>58511.24668</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>100167.64942</v>
+        <v>101637.51078</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>166104.30994</v>
+        <v>163950.29991</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>156526.48284</v>
+        <v>156438.66467</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>221244.97241</v>
+        <v>220982.96049</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>202457.06179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>201757.24616</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>150009.752</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2102,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>169.29242</v>
+        <v>17.69242</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>36.08222</v>
@@ -2113,173 +2164,198 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>203703.60175</v>
+        <v>190435.37056</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>220437.8544</v>
+        <v>205299.95968</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>191942.74584</v>
+        <v>177344.30299</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>229779.48111</v>
+        <v>220811.09928</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>257522.17352</v>
+        <v>252878.99971</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>288049.71464</v>
+        <v>286477.96287</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>319284.8092200001</v>
+        <v>343131.27115</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>419884.60152</v>
+        <v>405301.2955700001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>581257.00921</v>
+        <v>510062.2736</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>788555.4580600001</v>
+        <v>780448.65102</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>835631.2312799999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>806801.5223299999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>579790.849</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>866485.6460699999</v>
+        <v>808417.8671600001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1057614.59759</v>
+        <v>1001025.63003</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1860873.62926</v>
+        <v>1786320.37232</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1266043.5608</v>
+        <v>1204275.77262</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2573280.51941</v>
+        <v>2467403.453100001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2372001.88342</v>
+        <v>2342411.75452</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3189246.73943</v>
+        <v>3150934.49729</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3455220.78282</v>
+        <v>3160073.77741</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4416987.699700001</v>
+        <v>4049782.26564</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>10418465.55885</v>
+        <v>10117907.38445</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>9698523.93382</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>9599026.95352</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>9153740.843</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>6960.89664</v>
+        <v>6665.98183</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>8830.408660000001</v>
+        <v>8635.50985</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>8839.6909</v>
+        <v>8729.735070000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>7311.42059</v>
+        <v>6215.03519</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>5939.71722</v>
+        <v>5899.544980000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>10367.39303</v>
+        <v>10110.39645</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>8017.50703</v>
+        <v>7339.46591</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>14459.64972</v>
+        <v>14272.78798</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>10592.23867</v>
+        <v>10478.87079</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>13770.32773</v>
+        <v>13760.085</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>21740.32375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>21404.99026</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>16127.562</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>108875.8952</v>
+        <v>105465.80604</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>72817.08411999998</v>
+        <v>58330.29690000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>88929.93761000001</v>
+        <v>84411.40450999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>122020.95538</v>
+        <v>107501.25309</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>155858.57738</v>
+        <v>152836.81297</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>115690.936</v>
+        <v>115422.31768</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>159845.91313</v>
+        <v>161473.98505</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>155531.68681</v>
+        <v>138188.48127</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>135058.16707</v>
+        <v>130170.68958</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>201049.24143</v>
+        <v>198506.08054</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>259921.55037</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>238976.44146</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>124005.512</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>18.58295</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>30036.53133</v>
+        <v>27706.36133</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>3839.03887</v>
@@ -2288,13 +2364,13 @@
         <v>410.44289</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>20859.39315</v>
+        <v>20794.02833</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>419.52898</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>26.83578</v>
+        <v>26.82827</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>17574.60159</v>
@@ -2303,94 +2379,109 @@
         <v>37746.29215</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>279466.89902</v>
+        <v>279353.3373</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>148706.39811</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>148706.35756</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>394.522</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>674735.8835600001</v>
+        <v>627375.74262</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>861467.51521</v>
+        <v>835454.24222</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1663698.22422</v>
+        <v>1600482.8967</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1032619.04731</v>
+        <v>991620.94611</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2247245.28346</v>
+        <v>2144704.27362</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2055464.36017</v>
+        <v>2019772.40731</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2783398.272729999</v>
+        <v>2711635.26279</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2898440.27397</v>
+        <v>2630299.46569</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3839025.95283</v>
+        <v>3484805.29554</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>9360172.142409999</v>
+        <v>9068423.50694</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>8779122.683149999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>8716188.127630001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>8461776.239</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>18981.50425</v>
+        <v>15754.03491</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>13921.59294</v>
+        <v>13312.05613</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>20187.9201</v>
+        <v>19402.5989</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>24594.41021</v>
+        <v>24042.95725</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>49089.81047</v>
+        <v>48738.51211</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>60146.66582</v>
+        <v>61916.62514</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>111532.24916</v>
+        <v>112832.58111</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>177889.66517</v>
+        <v>176726.92829</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>166427.27802</v>
+        <v>166365.86397</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>249222.7919</v>
+        <v>249187.67228</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>182748.18316</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>182460.80173</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>178633.134</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>10.08066</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>373.9962</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>56902.80281</v>
+        <v>53127.63814999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>70541.46532999999</v>
+        <v>57587.1636</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>75378.81756</v>
+        <v>69454.69826999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>79087.28442</v>
+        <v>74485.13809000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>94226.00169</v>
+        <v>94368.54505000002</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>129197.84762</v>
+        <v>134055.32716</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>126424.39046</v>
+        <v>157624.80302</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>191324.90556</v>
+        <v>183011.51259</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>228137.77096</v>
+        <v>220215.25361</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>313704.41038</v>
+        <v>307596.95641</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>305910.79908</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>290916.2386800001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>372803.874</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>869329.74527</v>
+        <v>811584.6276400001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>777735.2397</v>
+        <v>722059.42581</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1489157.19712</v>
+        <v>1257048.77208</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>953217.4743100001</v>
+        <v>898835.97026</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1639591.78558</v>
+        <v>1588321.68027</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1434869.4236</v>
+        <v>1388197.47731</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2017624.02348</v>
+        <v>2065930.78381</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2544792.14952</v>
+        <v>2487439.98113</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>3864449.86358</v>
+        <v>3715309.36773</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>6774879.27235</v>
+        <v>6448307.047449999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>6170744.45951</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>5914104.92749</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>7168169.936</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>646453.7814</v>
+        <v>602782.37298</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>510973.9672899999</v>
+        <v>473407.02042</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>796792.0173099999</v>
+        <v>755696.96124</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>665101.6883399999</v>
+        <v>620303.75377</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>927827.9286600001</v>
+        <v>883491.31349</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>928920.0951700001</v>
+        <v>875583.80692</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1282329.89744</v>
+        <v>1334551.71585</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1832755.73503</v>
+        <v>1791405.57795</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>2639561.63413</v>
+        <v>2497195.64369</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>4007821.03496</v>
+        <v>3803111.50472</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3748318.73467</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3581283.08763</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4065972.048</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>222875.96387</v>
+        <v>208802.25466</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>266761.27241</v>
+        <v>248652.40539</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>692365.1798099999</v>
+        <v>501351.81084</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>288115.78597</v>
+        <v>278532.21649</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>711763.8569199999</v>
+        <v>704830.3667799999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>505949.3284300001</v>
+        <v>512613.67039</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>735294.12604</v>
+        <v>731379.06796</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>712036.41449</v>
+        <v>696034.4031799999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1224888.22945</v>
+        <v>1218113.72404</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2767058.23739</v>
+        <v>2645195.54273</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2422425.72484</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2332821.83986</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>3102197.888</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1440942.56723</v>
+        <v>1448537.40124</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>2197938.82917</v>
+        <v>2239348.13713</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2160599.56369</v>
+        <v>2328333.56449</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>2643025.97618</v>
+        <v>2691002.48734</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>2574050.6285</v>
+        <v>2596610.86437</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>4299373.50461</v>
+        <v>4617047.94661</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>4577017.93667</v>
+        <v>4363859.92226</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>4268502.26788</v>
+        <v>3961326.10614</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>4061686.1802</v>
+        <v>3801450.42871</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2466643.36998</v>
+        <v>2322020.78165</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1596516.21638</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1684793.58594</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>4088212.671</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>253517.59963</v>
+        <v>234283.52723</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>291433.31485</v>
+        <v>260263.27091</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>277996.14298</v>
+        <v>260501.83714</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>700922.08955</v>
+        <v>678548.0560799999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>840528.8496999999</v>
+        <v>751389.1895</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>760471.20655</v>
+        <v>728425.02341</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>540086.48928</v>
+        <v>507320.42449</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1115283.17038</v>
+        <v>1067387.02808</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>872972.3409300001</v>
+        <v>810558.23064</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>789408.4326700001</v>
+        <v>697754.7607100001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>822052.5898600001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>785999.22349</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>750881.453</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>33561.67256</v>
+        <v>33377.09045</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>26243.58082</v>
+        <v>24702.08049</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>13134.48641</v>
+        <v>9201.69046</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>6738.426280000001</v>
+        <v>5830.80514</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>14760.32334</v>
+        <v>14670.73581</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>12237.10188</v>
+        <v>11999.6203</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>17906.23821</v>
+        <v>17042.29491</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>18727.05938</v>
+        <v>12071.32076</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>19672.54606</v>
+        <v>19617.16465</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>12238.39407</v>
+        <v>12194.62981</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>17748.88068</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>15533.22802</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>15132.245</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>219955.92707</v>
+        <v>200906.43678</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>265189.73403</v>
+        <v>235561.19042</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>264861.65657</v>
+        <v>251300.14668</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>694183.66327</v>
+        <v>672717.2509400001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>825768.5263599999</v>
+        <v>736718.4536900001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>748234.10467</v>
+        <v>716425.4031100001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>522180.2510700001</v>
+        <v>490278.1295800001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1096556.111</v>
+        <v>1055315.70732</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>853299.79487</v>
+        <v>790941.0659899999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>777170.0386000001</v>
+        <v>685560.1309000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>804303.7091800001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>770465.9954700001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>735749.208</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>456696.72882</v>
+        <v>347583.01878</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>370279.25942</v>
+        <v>292158.35444</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>607740.55671</v>
+        <v>500299.93772</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>935838.8682700001</v>
+        <v>890049.1520300001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>575591.6416900001</v>
+        <v>542505.58274</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>685471.6728099999</v>
+        <v>658897.1004999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>775100.6934000001</v>
+        <v>755130.72074</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>988024.00303</v>
+        <v>945400.63166</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>950056.81668</v>
+        <v>899501.4308700002</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1247285.52163</v>
+        <v>1230014.06008</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1363549.4103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1250570.84785</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1352396.563</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>237900.40822</v>
+        <v>176165.86058</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>193211.07477</v>
+        <v>129297.04975</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>254260.41342</v>
+        <v>196327.63295</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>287694.6486</v>
+        <v>257444.28658</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>308190.17889</v>
+        <v>300742.5556300001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>331039.5278400001</v>
+        <v>306105.6260399999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>356159.58616</v>
+        <v>357156.77707</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>329493.93441</v>
+        <v>315951.22011</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>381378.25822</v>
+        <v>366477.06482</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>676618.60934</v>
+        <v>670732.33224</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>826969.7233300001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>778553.03932</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>625271.652</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>42288.6627</v>
+        <v>39138.17763000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>24841.42338</v>
+        <v>22055.33193</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>25208.41836</v>
+        <v>21379.195</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>22802.62219</v>
+        <v>21569.35909</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>34629.51343</v>
+        <v>34096.84990000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>40376.81441</v>
+        <v>39809.45489</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>36407.28254</v>
+        <v>36428.52103</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>69031.58958</v>
+        <v>69961.11600999998</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>43828.14336</v>
+        <v>42888.90719</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>46026.89464999999</v>
+        <v>45336.2993</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>46575.14711999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>45726.00845</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>33521.411</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>176507.6579</v>
+        <v>132278.98057</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>152226.76127</v>
+        <v>140805.97276</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>328271.72493</v>
+        <v>282593.10977</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>625341.59748</v>
+        <v>611035.50636</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>232771.94937</v>
+        <v>207666.17721</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>314055.33056</v>
+        <v>312982.01957</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>382533.8247000001</v>
+        <v>361545.42264</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>589498.47904</v>
+        <v>559488.29554</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>524850.4151</v>
+        <v>490135.45886</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>524640.01764</v>
+        <v>513945.4285399999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>490004.53985</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>426291.80008</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>693603.5</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1237763.43804</v>
+        <v>1335237.90969</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>2119092.8846</v>
+        <v>2207453.0536</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1830855.14996</v>
+        <v>2088535.46391</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>2408109.19746</v>
+        <v>2479501.39139</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2838987.83651</v>
+        <v>2805494.47113</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>4374373.03835</v>
+        <v>4686575.86952</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>4342003.73255</v>
+        <v>4116049.62601</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>4395761.43523</v>
+        <v>4083312.50256</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>3984601.70445</v>
+        <v>3712507.22848</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2008766.28102</v>
+        <v>1789761.48228</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1055019.395939999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1220221.96158</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3486697.561</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>277495.60174</v>
+        <v>267262.96095</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>393257.6392799999</v>
+        <v>384085.31076</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>466513.72388</v>
+        <v>453910.25196</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>396241.44515</v>
+        <v>388900.4761500001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>481362.28781</v>
+        <v>475235.45715</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>665090.9584199999</v>
+        <v>715288.99848</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>758785.0535800001</v>
+        <v>755411.2970899999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>775089.2806500001</v>
+        <v>768955.0994600001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>685769.2617799999</v>
+        <v>663785.65574</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>675393.26203</v>
+        <v>659175.7435499999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>524592.3180300001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>505064.34787</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>798418.542</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>960267.8363</v>
+        <v>1067974.94874</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1725835.24532</v>
+        <v>1823367.74284</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1364341.42608</v>
+        <v>1634625.21195</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2011867.75231</v>
+        <v>2090600.91524</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2357625.5487</v>
+        <v>2330259.013979999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3709282.07993</v>
+        <v>3971286.87104</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>3583218.67897</v>
+        <v>3360638.32892</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>3620672.154579999</v>
+        <v>3314357.4031</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>3298832.44267</v>
+        <v>3048721.57274</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1333373.01899</v>
+        <v>1130585.73873</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>530427.0779099999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>715157.6137100001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2688279.019</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>308</v>
+        <v>244</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>362</v>
+        <v>263</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>422</v>
+        <v>321</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>161</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>